--- a/Prelim_Data/Columbia_Plateau/Columbia_Plateau_50_95.xlsx
+++ b/Prelim_Data/Columbia_Plateau/Columbia_Plateau_50_95.xlsx
@@ -2246,7 +2246,7 @@
         <v>7.241642371234208</v>
       </c>
       <c r="O15" t="n">
-        <v>0.007649406432195557</v>
+        <v>0.007649406432195554</v>
       </c>
       <c r="P15" t="n">
         <v>0.98</v>
@@ -2488,7 +2488,7 @@
         <v>7.589166666666666</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006033562546140231</v>
+        <v>0.00603356254614023</v>
       </c>
       <c r="P17" t="n">
         <v>0.8</v>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="AK17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="AK20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="AK21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -3214,7 +3214,7 @@
         <v>6.779761904761904</v>
       </c>
       <c r="O23" t="n">
-        <v>0.05182091399710076</v>
+        <v>0.05182091399710077</v>
       </c>
       <c r="P23" t="n">
         <v>0.88</v>
@@ -3286,7 +3286,7 @@
         </is>
       </c>
       <c r="AK23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -3940,7 +3940,7 @@
         <v>10.8452380952381</v>
       </c>
       <c r="O29" t="n">
-        <v>0.006831240862513248</v>
+        <v>0.006831240862513246</v>
       </c>
       <c r="P29" t="n">
         <v>0.6333333333333333</v>
@@ -4424,7 +4424,7 @@
         <v>15.53240740740741</v>
       </c>
       <c r="O33" t="n">
-        <v>0.1792874572970605</v>
+        <v>0.1792874572970606</v>
       </c>
       <c r="P33" t="n">
         <v>0.72</v>
@@ -4787,7 +4787,7 @@
         <v>10.07777777777778</v>
       </c>
       <c r="O36" t="n">
-        <v>0.1023922516256201</v>
+        <v>0.1023922516256202</v>
       </c>
       <c r="P36" t="n">
         <v>0.7741935483870968</v>
@@ -4908,7 +4908,7 @@
         <v>13.94144144144144</v>
       </c>
       <c r="O37" t="n">
-        <v>0.3049926423347164</v>
+        <v>0.3049926423347166</v>
       </c>
       <c r="P37" t="n">
         <v>0.74</v>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="AK42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -5631,7 +5631,7 @@
         <v>15.85714285714286</v>
       </c>
       <c r="N43" t="n">
-        <v>5.877142857142857</v>
+        <v>5.877142857142856</v>
       </c>
       <c r="O43" t="n">
         <v>0.0510961477652352</v>
@@ -5873,10 +5873,10 @@
         <v>21.68292682926829</v>
       </c>
       <c r="N45" t="n">
-        <v>8.478919860627176</v>
+        <v>8.478919860627178</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1559372094145272</v>
+        <v>0.1559372094145271</v>
       </c>
       <c r="P45" t="n">
         <v>0.82</v>
@@ -7328,7 +7328,7 @@
         <v>15.28198198198198</v>
       </c>
       <c r="O57" t="n">
-        <v>0.1713674416333562</v>
+        <v>0.1713674416333563</v>
       </c>
       <c r="P57" t="n">
         <v>0.74</v>
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="AK58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -7567,10 +7567,10 @@
         <v>20.75</v>
       </c>
       <c r="N59" t="n">
-        <v>9.900595238095239</v>
+        <v>9.900595238095237</v>
       </c>
       <c r="O59" t="n">
-        <v>0.06455196448691043</v>
+        <v>0.06455196448691045</v>
       </c>
       <c r="P59" t="n">
         <v>0.5714285714285714</v>
@@ -7812,7 +7812,7 @@
         <v>11.18087121212121</v>
       </c>
       <c r="O61" t="n">
-        <v>0.08280397171873009</v>
+        <v>0.08280397171873011</v>
       </c>
       <c r="P61" t="n">
         <v>0.88</v>
@@ -8005,7 +8005,7 @@
         </is>
       </c>
       <c r="AK62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -8535,7 +8535,7 @@
         <v>18.74074074074074</v>
       </c>
       <c r="N67" t="n">
-        <v>4.969459141681364</v>
+        <v>4.969459141681363</v>
       </c>
       <c r="O67" t="n">
         <v>0.009185468681589619</v>
@@ -8901,7 +8901,7 @@
         <v>7.814351851851852</v>
       </c>
       <c r="O70" t="n">
-        <v>0.0004256360826732731</v>
+        <v>0.0004256360826732732</v>
       </c>
       <c r="P70" t="n">
         <v>0.36</v>
@@ -9752,7 +9752,7 @@
         <v>6.654100529100528</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02802196116224577</v>
+        <v>0.02802196116224578</v>
       </c>
       <c r="P77" t="n">
         <v>0.72</v>
@@ -9945,7 +9945,7 @@
         </is>
       </c>
       <c r="AK78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -10236,7 +10236,7 @@
         <v>7.156249999999999</v>
       </c>
       <c r="O81" t="n">
-        <v>0.00464995638615136</v>
+        <v>0.004649956386151363</v>
       </c>
       <c r="P81" t="n">
         <v>0.8</v>
@@ -10357,7 +10357,7 @@
         <v>8.202415966386555</v>
       </c>
       <c r="O82" t="n">
-        <v>0.06544405309196719</v>
+        <v>0.06544405309196726</v>
       </c>
       <c r="P82" t="n">
         <v>0.68</v>
@@ -10478,7 +10478,7 @@
         <v>8.728921568627451</v>
       </c>
       <c r="O83" t="n">
-        <v>0.06699524439480584</v>
+        <v>0.06699524439480588</v>
       </c>
       <c r="P83" t="n">
         <v>0.68</v>
@@ -10841,7 +10841,7 @@
         <v>8.585204081632652</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01996089263569628</v>
+        <v>0.0199608926356963</v>
       </c>
       <c r="P86" t="n">
         <v>0.5185185185185185</v>
@@ -11155,7 +11155,7 @@
         </is>
       </c>
       <c r="AK88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -11518,7 +11518,7 @@
         </is>
       </c>
       <c r="AK91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -11927,16 +11927,16 @@
         <v>46.73333333333333</v>
       </c>
       <c r="N95" t="n">
-        <v>33.30333333333333</v>
+        <v>33.53666666666667</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0679784005781785</v>
+        <v>0.06813302415270088</v>
       </c>
       <c r="P95" t="n">
         <v>0.3947368421052632</v>
       </c>
       <c r="Q95" t="n">
-        <v>2.333333333333333</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="R95" t="n">
         <v>213.6666666666667</v>
@@ -12123,7 +12123,7 @@
         </is>
       </c>
       <c r="AK96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -12486,7 +12486,7 @@
         </is>
       </c>
       <c r="AK99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -13019,7 +13019,7 @@
         <v>7.425576036866358</v>
       </c>
       <c r="O104" t="n">
-        <v>0.04485347931880865</v>
+        <v>0.04485347931880867</v>
       </c>
       <c r="P104" t="n">
         <v>0.62</v>
@@ -13503,7 +13503,7 @@
         <v>17.21071428571428</v>
       </c>
       <c r="O108" t="n">
-        <v>0.418635638781889</v>
+        <v>0.4186356387818895</v>
       </c>
       <c r="P108" t="n">
         <v>0.4</v>
@@ -13987,7 +13987,7 @@
         <v>8.065005537098559</v>
       </c>
       <c r="O112" t="n">
-        <v>0.256146088161774</v>
+        <v>0.2561460881617742</v>
       </c>
       <c r="P112" t="n">
         <v>0.86</v>
@@ -14105,10 +14105,10 @@
         <v>23.42857142857143</v>
       </c>
       <c r="N113" t="n">
-        <v>5.7393537414966</v>
+        <v>5.739353741496599</v>
       </c>
       <c r="O113" t="n">
-        <v>0.002990118669602988</v>
+        <v>0.002990118669602989</v>
       </c>
       <c r="P113" t="n">
         <v>0.7</v>
@@ -14347,7 +14347,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="N115" t="n">
-        <v>3.780320399764844</v>
+        <v>3.780320399764845</v>
       </c>
       <c r="O115" t="n">
         <v>0.001801179920259424</v>
@@ -14592,7 +14592,7 @@
         <v>15.03625730994152</v>
       </c>
       <c r="O117" t="n">
-        <v>0.3901976379788565</v>
+        <v>0.3901976379788569</v>
       </c>
       <c r="P117" t="n">
         <v>0.38</v>
@@ -14906,7 +14906,7 @@
         </is>
       </c>
       <c r="AK119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -14955,7 +14955,7 @@
         <v>10.65694444444444</v>
       </c>
       <c r="O120" t="n">
-        <v>0.007089722297120987</v>
+        <v>0.007089722297120988</v>
       </c>
       <c r="P120" t="n">
         <v>0.48</v>
@@ -15076,7 +15076,7 @@
         <v>9.385416666666666</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0116221882639547</v>
+        <v>0.01162218826395471</v>
       </c>
       <c r="P121" t="n">
         <v>0.8888888888888888</v>
@@ -15557,7 +15557,7 @@
         <v>25.19047619047619</v>
       </c>
       <c r="N125" t="n">
-        <v>13.87301587301588</v>
+        <v>13.87301587301587</v>
       </c>
       <c r="O125" t="n">
         <v>0.1234177946890704</v>
@@ -15753,7 +15753,7 @@
         </is>
       </c>
       <c r="AK126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -15802,7 +15802,7 @@
         <v>13.46759259259259</v>
       </c>
       <c r="O127" t="n">
-        <v>0.002123706861306801</v>
+        <v>0.0021237068613068</v>
       </c>
       <c r="P127" t="n">
         <v>0.4736842105263158</v>
@@ -15995,7 +15995,7 @@
         </is>
       </c>
       <c r="AK128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -16479,7 +16479,7 @@
         </is>
       </c>
       <c r="AK132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -16600,7 +16600,7 @@
         </is>
       </c>
       <c r="AK133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -16842,7 +16842,7 @@
         </is>
       </c>
       <c r="AK135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -16963,7 +16963,7 @@
         </is>
       </c>
       <c r="AK136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -17130,7 +17130,7 @@
         <v>18.19148936170213</v>
       </c>
       <c r="N138" t="n">
-        <v>3.270228884590586</v>
+        <v>3.270228884590587</v>
       </c>
       <c r="O138" t="n">
         <v>0.001525624797846879</v>
@@ -17614,10 +17614,10 @@
         <v>21.73333333333333</v>
       </c>
       <c r="N142" t="n">
-        <v>7.608333333333333</v>
+        <v>7.608333333333334</v>
       </c>
       <c r="O142" t="n">
-        <v>0.007306643500500287</v>
+        <v>0.007306643500500288</v>
       </c>
       <c r="P142" t="n">
         <v>0.6</v>
@@ -27635,19 +27635,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8844956339648804</v>
+        <v>0.8605277266625444</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1452726168175565</v>
+        <v>-0.1757024293378821</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.01469387755102041</v>
+        <v>-0.01785714285714286</v>
       </c>
       <c r="P4" t="n">
-        <v>-18</v>
+        <v>-21</v>
       </c>
       <c r="Q4" t="n">
-        <v>13694</v>
+        <v>12957</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -28545,25 +28545,25 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.09498815812367489</v>
+        <v>0.6486418517513601</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.669652392084682</v>
+        <v>-0.455649764201308</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1379591836734694</v>
+        <v>-0.08187134502923976</v>
       </c>
       <c r="P18" t="n">
-        <v>-169</v>
+        <v>-14</v>
       </c>
       <c r="Q18" t="n">
-        <v>10124.33333333333</v>
+        <v>814</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-0.06593406593406594</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>5.393406593406593</v>
       </c>
     </row>
     <row r="19">
@@ -28798,32 +28798,32 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0004221050071129273</v>
+        <v>0.9565001460423768</v>
       </c>
       <c r="N22" t="n">
-        <v>3.525863161288555</v>
+        <v>-0.05454601804028707</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3387755102040816</v>
+        <v>-0.007936507936507936</v>
       </c>
       <c r="P22" t="n">
-        <v>415</v>
+        <v>-5</v>
       </c>
       <c r="Q22" t="n">
-        <v>13787</v>
+        <v>5377.666666666667</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.5750000000000002</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="23">
@@ -29065,25 +29065,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.394554097682787</v>
+        <v>0.3577948655088212</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8513875638590027</v>
+        <v>0.9195750583312053</v>
       </c>
       <c r="O26" t="n">
-        <v>0.07836734693877551</v>
+        <v>0.0858843537414966</v>
       </c>
       <c r="P26" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="Q26" t="n">
-        <v>12450.66666666667</v>
+        <v>11825.66666666667</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="27">
@@ -29260,25 +29260,25 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0.03831667255398186</v>
+        <v>0.03492440092971849</v>
       </c>
       <c r="N29" t="n">
-        <v>2.071450962709253</v>
+        <v>2.109233855946642</v>
       </c>
       <c r="O29" t="n">
-        <v>0.2559139784946237</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="P29" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q29" t="n">
-        <v>3245</v>
+        <v>2972.666666666667</v>
       </c>
       <c r="R29" t="n">
-        <v>0.1583333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.375</v>
+        <v>-0.6363636363636362</v>
       </c>
     </row>
     <row r="30">
@@ -29838,32 +29838,32 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01585020482293542</v>
+        <v>0.6041785223062051</v>
       </c>
       <c r="N38" t="n">
-        <v>2.412346621074717</v>
+        <v>-0.5184009925889004</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2057142857142857</v>
+        <v>-0.07666666666666666</v>
       </c>
       <c r="P38" t="n">
-        <v>252</v>
+        <v>-23</v>
       </c>
       <c r="Q38" t="n">
-        <v>10826</v>
+        <v>1801</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>-0.08888888888888891</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.566666666666666</v>
       </c>
     </row>
     <row r="39">
@@ -29975,25 +29975,25 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.3184526430968604</v>
+        <v>0.3396525330846307</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.997642709361015</v>
+        <v>-0.9548520263958344</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.09795918367346938</v>
+        <v>-0.09713228492136911</v>
       </c>
       <c r="P40" t="n">
-        <v>-120</v>
+        <v>-105</v>
       </c>
       <c r="Q40" t="n">
-        <v>14228</v>
+        <v>11863</v>
       </c>
       <c r="R40" t="n">
-        <v>-0.043859649122807</v>
+        <v>-0.0456989247311828</v>
       </c>
       <c r="S40" t="n">
-        <v>6.991228070175437</v>
+        <v>7.551075268817204</v>
       </c>
     </row>
     <row r="41">
@@ -30170,25 +30170,25 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.9864516981673062</v>
+        <v>0.6665388417397997</v>
       </c>
       <c r="N43" t="n">
-        <v>0.01698109429273006</v>
+        <v>-0.4309030829119628</v>
       </c>
       <c r="O43" t="n">
-        <v>0.002448979591836735</v>
+        <v>-0.04651162790697674</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>-42</v>
       </c>
       <c r="Q43" t="n">
-        <v>13871.66666666667</v>
+        <v>9053.333333333334</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-0.006756756756756757</v>
       </c>
       <c r="S43" t="n">
-        <v>3.666666666666667</v>
+        <v>4.641891891891892</v>
       </c>
     </row>
     <row r="44">
@@ -30300,19 +30300,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7243875517329288</v>
+        <v>0.7887152843391385</v>
       </c>
       <c r="N45" t="n">
-        <v>0.3526010480968462</v>
+        <v>0.2679792584830652</v>
       </c>
       <c r="O45" t="n">
-        <v>0.03510204081632653</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="P45" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="Q45" t="n">
-        <v>14188.33333333333</v>
+        <v>13382</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -30358,32 +30358,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.003812775479537844</v>
+        <v>0.6843474773328535</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.893250112224641</v>
+        <v>-0.4065378156740708</v>
       </c>
       <c r="O46" t="n">
-        <v>-0.2677304964539007</v>
+        <v>-0.04873949579831933</v>
       </c>
       <c r="P46" t="n">
-        <v>-302</v>
+        <v>-29</v>
       </c>
       <c r="Q46" t="n">
-        <v>10823.33333333333</v>
+        <v>4743.666666666667</v>
       </c>
       <c r="R46" t="n">
-        <v>-0.01754385964912284</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4122807017543867</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -31203,32 +31203,32 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>4.408391526489197e-06</v>
+        <v>0.2025679749526061</v>
       </c>
       <c r="N59" t="n">
-        <v>4.591136376493806</v>
+        <v>1.274269349956132</v>
       </c>
       <c r="O59" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1571969696969697</v>
       </c>
       <c r="P59" t="n">
-        <v>525</v>
+        <v>83</v>
       </c>
       <c r="Q59" t="n">
-        <v>13026.33333333333</v>
+        <v>4141</v>
       </c>
       <c r="R59" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1495535714285714</v>
       </c>
       <c r="S59" t="n">
-        <v>-1.76923076923077</v>
+        <v>5.607142857142858</v>
       </c>
     </row>
     <row r="60">
@@ -31665,25 +31665,25 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.2036045598293392</v>
+        <v>0.5436321407219808</v>
       </c>
       <c r="N66" t="n">
-        <v>1.271348881037652</v>
+        <v>-0.6073296868822874</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1240816326530612</v>
+        <v>-0.06707317073170732</v>
       </c>
       <c r="P66" t="n">
-        <v>152</v>
+        <v>-55</v>
       </c>
       <c r="Q66" t="n">
-        <v>14106.66666666667</v>
+        <v>7905.666666666667</v>
       </c>
       <c r="R66" t="n">
-        <v>0.04487179487179485</v>
+        <v>-0.01923076923076923</v>
       </c>
       <c r="S66" t="n">
-        <v>2.483974358974359</v>
+        <v>4.384615384615385</v>
       </c>
     </row>
     <row r="67">
@@ -31723,32 +31723,32 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="n">
-        <v>3.645534107699078e-06</v>
-      </c>
       <c r="N67" t="n">
-        <v>4.63063079494012</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0.4293877551020408</v>
+        <v>0.002463054187192118</v>
       </c>
       <c r="P67" t="n">
-        <v>526</v>
+        <v>1</v>
       </c>
       <c r="Q67" t="n">
-        <v>12854</v>
+        <v>2837</v>
       </c>
       <c r="R67" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.333333333333333</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="68">
@@ -31918,32 +31918,32 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.003187581933696393</v>
+        <v>0.3949411107763483</v>
       </c>
       <c r="N70" t="n">
-        <v>2.94904438462574</v>
+        <v>0.8506908437621611</v>
       </c>
       <c r="O70" t="n">
-        <v>0.2473469387755102</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="P70" t="n">
-        <v>303</v>
+        <v>33</v>
       </c>
       <c r="Q70" t="n">
-        <v>10487</v>
+        <v>1415</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>2.3125</v>
       </c>
     </row>
     <row r="71">
@@ -32048,32 +32048,32 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0008694115206626662</v>
+        <v>0.2570615100989806</v>
       </c>
       <c r="N72" t="n">
-        <v>3.329695031951394</v>
+        <v>1.133363798497767</v>
       </c>
       <c r="O72" t="n">
-        <v>0.2506122448979592</v>
+        <v>0.1660079051383399</v>
       </c>
       <c r="P72" t="n">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="Q72" t="n">
-        <v>8445.666666666666</v>
+        <v>1308.666666666667</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="73">
@@ -33521,16 +33521,16 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6921807727218765</v>
+        <v>0.7665252995235718</v>
       </c>
       <c r="E95" t="n">
-        <v>0.3958973274443148</v>
+        <v>0.2969229955832361</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H95" t="n">
         <v>408.3333333333333</v>
@@ -33550,16 +33550,16 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.5985106743059239</v>
+        <v>0.5794034813424265</v>
       </c>
       <c r="N95" t="n">
-        <v>-0.5265434455009388</v>
+        <v>-0.5542562584220408</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.05263157894736842</v>
+        <v>-0.0553306342780027</v>
       </c>
       <c r="P95" t="n">
-        <v>-39</v>
+        <v>-41</v>
       </c>
       <c r="Q95" t="n">
         <v>5208.333333333333</v>
@@ -34070,25 +34070,25 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.3897902517338347</v>
+        <v>0.9308844341393401</v>
       </c>
       <c r="N103" t="n">
-        <v>0.8599978063334164</v>
+        <v>-0.08673213308848518</v>
       </c>
       <c r="O103" t="n">
-        <v>0.08943089430894309</v>
+        <v>-0.01176470588235294</v>
       </c>
       <c r="P103" t="n">
-        <v>77</v>
+        <v>-7</v>
       </c>
       <c r="Q103" t="n">
-        <v>7809.666666666667</v>
+        <v>4785.666666666667</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
       </c>
       <c r="S103" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="104">
@@ -34265,25 +34265,25 @@
         <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0.05031869482586115</v>
+        <v>0.9816225867151522</v>
       </c>
       <c r="N106" t="n">
-        <v>1.957244792583172</v>
+        <v>-0.02303470874272992</v>
       </c>
       <c r="O106" t="n">
-        <v>0.1551020408163265</v>
+        <v>-0.006153846153846154</v>
       </c>
       <c r="P106" t="n">
-        <v>190</v>
+        <v>-2</v>
       </c>
       <c r="Q106" t="n">
-        <v>9324.666666666666</v>
+        <v>1884.666666666667</v>
       </c>
       <c r="R106" t="n">
         <v>0</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -34720,25 +34720,25 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.3909329182782812</v>
+        <v>0.4539693793700228</v>
       </c>
       <c r="N113" t="n">
-        <v>0.8579267389934956</v>
+        <v>0.7488139020976839</v>
       </c>
       <c r="O113" t="n">
-        <v>0.08326530612244898</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="P113" t="n">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="Q113" t="n">
-        <v>13859.33333333333</v>
+        <v>10301</v>
       </c>
       <c r="R113" t="n">
-        <v>0</v>
+        <v>0.02167277167277167</v>
       </c>
       <c r="S113" t="n">
-        <v>2.714285714285714</v>
+        <v>2.523199023199023</v>
       </c>
     </row>
     <row r="114">
@@ -34850,25 +34850,25 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0.1103757568971493</v>
+        <v>0.4136977425759303</v>
       </c>
       <c r="N115" t="n">
-        <v>1.596506494678887</v>
+        <v>0.8174037338950666</v>
       </c>
       <c r="O115" t="n">
-        <v>0.1485714285714286</v>
+        <v>0.1053763440860215</v>
       </c>
       <c r="P115" t="n">
-        <v>182</v>
+        <v>49</v>
       </c>
       <c r="Q115" t="n">
-        <v>12853.33333333333</v>
+        <v>3448.333333333333</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>0.03571428571428581</v>
       </c>
       <c r="S115" t="n">
-        <v>1.5</v>
+        <v>2.019841269841268</v>
       </c>
     </row>
     <row r="116">
@@ -35038,32 +35038,32 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>0.001968500374280646</v>
+        <v>0.9342847091688518</v>
       </c>
       <c r="N118" t="n">
-        <v>-3.094944033650458</v>
+        <v>-0.08245524152850489</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.2448979591836735</v>
+        <v>-0.02205882352941177</v>
       </c>
       <c r="P118" t="n">
-        <v>-300</v>
+        <v>-3</v>
       </c>
       <c r="Q118" t="n">
-        <v>9333.333333333334</v>
+        <v>588.3333333333334</v>
       </c>
       <c r="R118" t="n">
-        <v>0</v>
+        <v>-0.07142857142857141</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>6.571428571428571</v>
       </c>
     </row>
     <row r="119">
@@ -35168,32 +35168,32 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0.001412112871050253</v>
+        <v>0.4196109188429</v>
       </c>
       <c r="N120" t="n">
-        <v>3.192163679558953</v>
+        <v>-0.8070964472117726</v>
       </c>
       <c r="O120" t="n">
-        <v>0.2889795918367347</v>
+        <v>-0.1057471264367816</v>
       </c>
       <c r="P120" t="n">
-        <v>354</v>
+        <v>-46</v>
       </c>
       <c r="Q120" t="n">
-        <v>12228.66666666667</v>
+        <v>3108.666666666667</v>
       </c>
       <c r="R120" t="n">
-        <v>0.03125</v>
+        <v>-0.125</v>
       </c>
       <c r="S120" t="n">
-        <v>-0.765625</v>
+        <v>7.6125</v>
       </c>
     </row>
     <row r="121">
@@ -35305,25 +35305,25 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.654014203015238</v>
+        <v>0.5318015717062972</v>
       </c>
       <c r="N122" t="n">
-        <v>-0.4481925997747298</v>
+        <v>-0.6252582575139637</v>
       </c>
       <c r="O122" t="n">
-        <v>-0.04326530612244898</v>
+        <v>-0.0664451827242525</v>
       </c>
       <c r="P122" t="n">
-        <v>-53</v>
+        <v>-60</v>
       </c>
       <c r="Q122" t="n">
-        <v>13461</v>
+        <v>8904</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
@@ -35500,25 +35500,25 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.8590463994762583</v>
+        <v>0.1194720974217798</v>
       </c>
       <c r="N125" t="n">
-        <v>-0.1775881908271437</v>
+        <v>-1.556993210399037</v>
       </c>
       <c r="O125" t="n">
-        <v>-0.0163265306122449</v>
+        <v>-0.2044334975369458</v>
       </c>
       <c r="P125" t="n">
-        <v>-20</v>
+        <v>-83</v>
       </c>
       <c r="Q125" t="n">
-        <v>11446.66666666667</v>
+        <v>2773.666666666667</v>
       </c>
       <c r="R125" t="n">
-        <v>0</v>
+        <v>-0.3674749163879598</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>10.89464882943144</v>
       </c>
     </row>
     <row r="126">
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0.7351983331926095</v>
+        <v>0.9241325721763831</v>
       </c>
       <c r="N126" t="n">
-        <v>0.3382187685042871</v>
+        <v>-0.09522945803722153</v>
       </c>
       <c r="O126" t="n">
-        <v>0.03346938775510204</v>
+        <v>-0.0106280193236715</v>
       </c>
       <c r="P126" t="n">
-        <v>41</v>
+        <v>-11</v>
       </c>
       <c r="Q126" t="n">
-        <v>13987</v>
+        <v>11027</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="127">
@@ -35630,25 +35630,25 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.4289636625323863</v>
+        <v>0.1702909531150576</v>
       </c>
       <c r="N127" t="n">
-        <v>0.7909662909529345</v>
+        <v>1.371269521507303</v>
       </c>
       <c r="O127" t="n">
-        <v>0.08392603129445235</v>
+        <v>0.1966666666666667</v>
       </c>
       <c r="P127" t="n">
         <v>59</v>
       </c>
       <c r="Q127" t="n">
-        <v>5377</v>
+        <v>1789</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>0.2984126984126984</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>4.752380952380953</v>
       </c>
     </row>
     <row r="128">
@@ -36345,25 +36345,25 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.4408525818516011</v>
+        <v>0.9195135439406887</v>
       </c>
       <c r="N138" t="n">
-        <v>0.7707542965310265</v>
+        <v>-0.1010465043413376</v>
       </c>
       <c r="O138" t="n">
-        <v>0.07591836734693877</v>
+        <v>-0.01110083256244218</v>
       </c>
       <c r="P138" t="n">
-        <v>93</v>
+        <v>-12</v>
       </c>
       <c r="Q138" t="n">
-        <v>14247.66666666667</v>
+        <v>11850.66666666667</v>
       </c>
       <c r="R138" t="n">
-        <v>0.01010101010101011</v>
+        <v>0</v>
       </c>
       <c r="S138" t="n">
-        <v>2.752525252525253</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
@@ -36605,25 +36605,25 @@
         <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1317196035831851</v>
+        <v>0.4457234473481497</v>
       </c>
       <c r="N142" t="n">
-        <v>1.507355324748251</v>
+        <v>-0.7625640231279325</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1428571428571428</v>
+        <v>-0.08858858858858859</v>
       </c>
       <c r="P142" t="n">
-        <v>175</v>
+        <v>-59</v>
       </c>
       <c r="Q142" t="n">
-        <v>13325</v>
+        <v>5785</v>
       </c>
       <c r="R142" t="n">
-        <v>0</v>
+        <v>-0.05555555555555561</v>
       </c>
       <c r="S142" t="n">
-        <v>2</v>
+        <v>6.200000000000001</v>
       </c>
     </row>
     <row r="143">
@@ -37046,19 +37046,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6988126332674374</v>
+        <v>0.7104306898553399</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3869237834213409</v>
+        <v>0.3712777212457833</v>
       </c>
       <c r="O4" t="n">
-        <v>0.03673469387755102</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P4" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q4" t="n">
-        <v>12931.66666666667</v>
+        <v>12194.66666666667</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -37956,25 +37956,25 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1136842461568834</v>
+        <v>0.8870451208364276</v>
       </c>
       <c r="N18" t="n">
-        <v>-1.581848122924157</v>
+        <v>-0.142044164845687</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1306122448979592</v>
+        <v>-0.02923976608187134</v>
       </c>
       <c r="P18" t="n">
-        <v>-160</v>
+        <v>-5</v>
       </c>
       <c r="Q18" t="n">
-        <v>10103.33333333333</v>
+        <v>793</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -38209,32 +38209,32 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002556748162174438</v>
+        <v>0.3712480546828387</v>
       </c>
       <c r="N22" t="n">
-        <v>3.01654316097632</v>
+        <v>-0.8941380096891555</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2889795918367347</v>
+        <v>-0.1047619047619048</v>
       </c>
       <c r="P22" t="n">
-        <v>354</v>
+        <v>-66</v>
       </c>
       <c r="Q22" t="n">
-        <v>13694</v>
+        <v>5284.666666666667</v>
       </c>
       <c r="R22" t="n">
-        <v>0.05882352941176471</v>
+        <v>-0.0303030303030303</v>
       </c>
       <c r="S22" t="n">
-        <v>1.558823529411765</v>
+        <v>4.53030303030303</v>
       </c>
     </row>
     <row r="23">
@@ -38476,25 +38476,25 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.9491181984902148</v>
+        <v>0.9850601489981838</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.06381416590350103</v>
+        <v>-0.01872542073030786</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.006530612244897959</v>
+        <v>-0.002551020408163265</v>
       </c>
       <c r="P26" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="Q26" t="n">
-        <v>12032.66666666667</v>
+        <v>11407.66666666667</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -38671,25 +38671,25 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2586664927542295</v>
+        <v>0.2604228326234921</v>
       </c>
       <c r="N29" t="n">
-        <v>1.129548569529976</v>
+        <v>1.125392299802487</v>
       </c>
       <c r="O29" t="n">
-        <v>0.1397849462365591</v>
+        <v>0.1425287356321839</v>
       </c>
       <c r="P29" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q29" t="n">
-        <v>3210.333333333333</v>
+        <v>2938</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -39249,32 +39249,32 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0.00501132059916265</v>
+        <v>0.700283863420285</v>
       </c>
       <c r="N38" t="n">
-        <v>2.806305177755531</v>
+        <v>0.3849373086914444</v>
       </c>
       <c r="O38" t="n">
-        <v>0.2383673469387755</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="P38" t="n">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="Q38" t="n">
-        <v>10752.66666666667</v>
+        <v>1727.666666666667</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -39386,19 +39386,19 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4838108861933907</v>
+        <v>0.5294927145023132</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.7001864281557861</v>
+        <v>-0.6287805816154457</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.06693877551020408</v>
+        <v>-0.06197964847363552</v>
       </c>
       <c r="P40" t="n">
-        <v>-82</v>
+        <v>-67</v>
       </c>
       <c r="Q40" t="n">
-        <v>13382.66666666667</v>
+        <v>11017.66666666667</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -39581,19 +39581,19 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.958951697948961</v>
+        <v>0.6927946763304649</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0514691324826685</v>
+        <v>-0.3950653277746584</v>
       </c>
       <c r="O43" t="n">
-        <v>0.005714285714285714</v>
+        <v>-0.04208194905869325</v>
       </c>
       <c r="P43" t="n">
-        <v>7</v>
+        <v>-38</v>
       </c>
       <c r="Q43" t="n">
-        <v>13589.66666666667</v>
+        <v>8771.333333333334</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -39711,19 +39711,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.3510789346102188</v>
+        <v>0.2899157743181568</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.9324985520880208</v>
+        <v>-1.05830640392219</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.08979591836734693</v>
+        <v>-0.102891156462585</v>
       </c>
       <c r="P45" t="n">
-        <v>-110</v>
+        <v>-121</v>
       </c>
       <c r="Q45" t="n">
-        <v>13663.33333333333</v>
+        <v>12857</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -39769,32 +39769,32 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.1813388574991128</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.33664403637402</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.146218487394958</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-87</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4139.666666666667</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.0003833831799300302</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.551265693978085</v>
-      </c>
-      <c r="O46" t="n">
-        <v>-0.3191489361702128</v>
-      </c>
-      <c r="P46" t="n">
-        <v>-360</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>10219.33333333333</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -40614,32 +40614,32 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>2.74459620119849e-06</v>
+        <v>0.1648981163691001</v>
       </c>
       <c r="N59" t="n">
-        <v>4.689062454012554</v>
+        <v>1.388785070569616</v>
       </c>
       <c r="O59" t="n">
-        <v>0.4310204081632653</v>
+        <v>0.1628787878787879</v>
       </c>
       <c r="P59" t="n">
-        <v>528</v>
+        <v>86</v>
       </c>
       <c r="Q59" t="n">
-        <v>12631.33333333333</v>
+        <v>3746</v>
       </c>
       <c r="R59" t="n">
-        <v>0.0425531914893617</v>
+        <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>-0.04255319148936176</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -41076,25 +41076,25 @@
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0.07233940321045473</v>
+        <v>0.9633704608077815</v>
       </c>
       <c r="N66" t="n">
-        <v>1.796976168438169</v>
+        <v>0.04592445708074954</v>
       </c>
       <c r="O66" t="n">
-        <v>0.1730612244897959</v>
+        <v>0.006097560975609756</v>
       </c>
       <c r="P66" t="n">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>13787.33333333333</v>
+        <v>7586.333333333333</v>
       </c>
       <c r="R66" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
-        <v>1.355263157894737</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67">
@@ -41134,32 +41134,32 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
-      <c r="M67" t="n">
-        <v>3.702622480394879e-06</v>
-      </c>
       <c r="N67" t="n">
-        <v>4.627412687018791</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0.4277551020408163</v>
+        <v>-0.002463054187192118</v>
       </c>
       <c r="P67" t="n">
-        <v>524</v>
+        <v>-1</v>
       </c>
       <c r="Q67" t="n">
-        <v>12774</v>
+        <v>2757</v>
       </c>
       <c r="R67" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
-        <v>-0.25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -41329,32 +41329,32 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>0.02090499091612719</v>
+        <v>0.3869973371978499</v>
       </c>
       <c r="N70" t="n">
-        <v>2.30969599117745</v>
+        <v>-0.8650755249251965</v>
       </c>
       <c r="O70" t="n">
-        <v>0.193469387755102</v>
+        <v>-0.1304347826086956</v>
       </c>
       <c r="P70" t="n">
-        <v>237</v>
+        <v>-33</v>
       </c>
       <c r="Q70" t="n">
-        <v>10440.33333333333</v>
+        <v>1368.333333333333</v>
       </c>
       <c r="R70" t="n">
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -41459,32 +41459,32 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7804941200970492</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.2786751690725666</v>
+      </c>
+      <c r="O72" t="n">
+        <v>-0.04347826086956522</v>
+      </c>
+      <c r="P72" t="n">
+        <v>-11</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1287.666666666667</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>1</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.00584393058961763</v>
-      </c>
-      <c r="N72" t="n">
-        <v>2.756412165126316</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0.2073469387755102</v>
-      </c>
-      <c r="P72" t="n">
-        <v>254</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>8424.666666666666</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -42932,19 +42932,19 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.159176756009167</v>
+        <v>0.1758384813657532</v>
       </c>
       <c r="E95" t="n">
-        <v>-1.407845729584271</v>
+        <v>-1.353680031929301</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2476190476190476</v>
+        <v>-0.2380952380952381</v>
       </c>
       <c r="G95" t="n">
-        <v>-26</v>
+        <v>-25</v>
       </c>
       <c r="H95" t="n">
-        <v>315.3333333333333</v>
+        <v>314.3333333333333</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -42961,19 +42961,19 @@
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>0.3074102103940157</v>
+        <v>0.3140367173593073</v>
       </c>
       <c r="N95" t="n">
-        <v>-1.020671270441264</v>
+        <v>-1.006787885851035</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.09986504723346828</v>
+        <v>-0.09851551956815115</v>
       </c>
       <c r="P95" t="n">
-        <v>-74</v>
+        <v>-73</v>
       </c>
       <c r="Q95" t="n">
-        <v>5115.333333333333</v>
+        <v>5114.333333333333</v>
       </c>
       <c r="R95" t="n">
         <v>0</v>
@@ -43481,19 +43481,19 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>0.927485408388375</v>
+        <v>0.1797484873874016</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.09100903949516802</v>
+        <v>-1.341529842258298</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.01045296167247387</v>
+        <v>-0.1563025210084034</v>
       </c>
       <c r="P103" t="n">
-        <v>-9</v>
+        <v>-93</v>
       </c>
       <c r="Q103" t="n">
-        <v>7727</v>
+        <v>4703</v>
       </c>
       <c r="R103" t="n">
         <v>0</v>
@@ -43669,32 +43669,32 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.485065843171268</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.6981780638018836</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.09538461538461539</v>
+      </c>
+      <c r="P106" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1846.333333333333</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
         <v>1</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.02123802451391743</v>
-      </c>
-      <c r="N106" t="n">
-        <v>2.303726086592954</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.1820408163265306</v>
-      </c>
-      <c r="P106" t="n">
-        <v>223</v>
-      </c>
-      <c r="Q106" t="n">
-        <v>9286.333333333334</v>
-      </c>
-      <c r="R106" t="n">
-        <v>0</v>
-      </c>
-      <c r="S106" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -44131,19 +44131,19 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>0.5141079100845607</v>
+        <v>0.3127371169525379</v>
       </c>
       <c r="N113" t="n">
-        <v>-0.6524546641796106</v>
+        <v>-1.009495378434651</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.06285714285714286</v>
+        <v>-0.103030303030303</v>
       </c>
       <c r="P113" t="n">
-        <v>-77</v>
+        <v>-102</v>
       </c>
       <c r="Q113" t="n">
-        <v>13568.33333333333</v>
+        <v>10010</v>
       </c>
       <c r="R113" t="n">
         <v>0</v>
@@ -44261,25 +44261,25 @@
         <v>0</v>
       </c>
       <c r="M115" t="n">
-        <v>0.633031062630049</v>
+        <v>0.1857468386547563</v>
       </c>
       <c r="N115" t="n">
-        <v>0.47746496559469</v>
+        <v>-1.323266287655244</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04489795918367347</v>
+        <v>-0.167741935483871</v>
       </c>
       <c r="P115" t="n">
-        <v>55</v>
+        <v>-78</v>
       </c>
       <c r="Q115" t="n">
-        <v>12791</v>
+        <v>3386</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>-0.08333333333333333</v>
       </c>
       <c r="S115" t="n">
-        <v>2</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="116">
@@ -44449,32 +44449,32 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>decreasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
-      <c r="M118" t="n">
-        <v>0.002195609698919521</v>
-      </c>
       <c r="N118" t="n">
-        <v>-3.062412072015936</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>-0.2416326530612245</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="P118" t="n">
-        <v>-296</v>
+        <v>1</v>
       </c>
       <c r="Q118" t="n">
-        <v>9279.333333333334</v>
+        <v>534.3333333333334</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -44579,32 +44579,32 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0007415173902323158</v>
+        <v>0.6204508852729831</v>
       </c>
       <c r="N120" t="n">
-        <v>3.373749776092503</v>
+        <v>-0.4952114270483421</v>
       </c>
       <c r="O120" t="n">
-        <v>0.3036734693877551</v>
+        <v>-0.06436781609195402</v>
       </c>
       <c r="P120" t="n">
-        <v>372</v>
+        <v>-28</v>
       </c>
       <c r="Q120" t="n">
-        <v>12092.66666666667</v>
+        <v>2972.666666666667</v>
       </c>
       <c r="R120" t="n">
         <v>0</v>
       </c>
       <c r="S120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121">
@@ -44716,19 +44716,19 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0.9651349369053368</v>
+        <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04371079170244923</v>
+        <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>0.004897959183673469</v>
+        <v>-0.001107419712070875</v>
       </c>
       <c r="P122" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Q122" t="n">
-        <v>13084.66666666667</v>
+        <v>8527.666666666666</v>
       </c>
       <c r="R122" t="n">
         <v>0</v>
@@ -44911,25 +44911,25 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0.387197403597966</v>
+        <v>0.5729580176967639</v>
       </c>
       <c r="N125" t="n">
-        <v>0.8647110488671473</v>
+        <v>0.5637004403031675</v>
       </c>
       <c r="O125" t="n">
-        <v>0.07591836734693877</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="P125" t="n">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="Q125" t="n">
-        <v>11319.66666666667</v>
+        <v>2646.666666666667</v>
       </c>
       <c r="R125" t="n">
         <v>0</v>
       </c>
       <c r="S125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -44976,19 +44976,19 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>0.4705543297359274</v>
+        <v>0.755851007513781</v>
       </c>
       <c r="N126" t="n">
-        <v>0.7215774136169215</v>
+        <v>0.3109337223606067</v>
       </c>
       <c r="O126" t="n">
-        <v>0.06938775510204082</v>
+        <v>0.03188405797101449</v>
       </c>
       <c r="P126" t="n">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="Q126" t="n">
-        <v>13551.66666666667</v>
+        <v>10591.66666666667</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -45041,25 +45041,25 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0.5457256214677479</v>
+        <v>0.2881116829209884</v>
       </c>
       <c r="N127" t="n">
-        <v>0.6041775252824612</v>
+        <v>1.062273187484946</v>
       </c>
       <c r="O127" t="n">
-        <v>0.06401137980085349</v>
+        <v>0.15</v>
       </c>
       <c r="P127" t="n">
         <v>45</v>
       </c>
       <c r="Q127" t="n">
-        <v>5303.666666666667</v>
+        <v>1715.666666666667</v>
       </c>
       <c r="R127" t="n">
         <v>0</v>
       </c>
       <c r="S127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -45749,32 +45749,32 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0409695293436243</v>
+        <v>0.2038097322334718</v>
       </c>
       <c r="N138" t="n">
-        <v>2.043838247187202</v>
+        <v>1.270772113468216</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1983673469387755</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="P138" t="n">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c r="Q138" t="n">
-        <v>14019.66666666667</v>
+        <v>11622.66666666667</v>
       </c>
       <c r="R138" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="S138" t="n">
-        <v>3.175675675675675</v>
+        <v>4.378378378378378</v>
       </c>
     </row>
     <row r="139">
@@ -46009,32 +46009,32 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>increasing</t>
+          <t>no trend</t>
         </is>
       </c>
       <c r="L142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M142" t="n">
-        <v>0.008257676124286961</v>
+        <v>0.35733046379264</v>
       </c>
       <c r="N142" t="n">
-        <v>2.641348370021299</v>
+        <v>0.9204637578316442</v>
       </c>
       <c r="O142" t="n">
-        <v>0.2481632653061225</v>
+        <v>0.1051051051051051</v>
       </c>
       <c r="P142" t="n">
-        <v>304</v>
+        <v>70</v>
       </c>
       <c r="Q142" t="n">
-        <v>13159.33333333333</v>
+        <v>5619.333333333333</v>
       </c>
       <c r="R142" t="n">
-        <v>0.02564102564102564</v>
+        <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>0.8717948717948718</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
